--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G318"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5436,10 +5436,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G197" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -5473,10 +5471,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -5506,10 +5502,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -5539,10 +5533,8 @@
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -5572,10 +5564,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -5605,10 +5595,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -5634,10 +5622,8 @@
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -5663,10 +5649,8 @@
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -5696,10 +5680,8 @@
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -5729,10 +5711,8 @@
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -5758,10 +5738,8 @@
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -5787,10 +5765,8 @@
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -5816,10 +5792,8 @@
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -5845,10 +5819,8 @@
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -5874,10 +5846,8 @@
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -5907,10 +5877,8 @@
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -5936,10 +5904,8 @@
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -5965,10 +5931,8 @@
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -5994,10 +5958,8 @@
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -6023,10 +5985,8 @@
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -6052,245 +6012,211 @@
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations FinalJAN</t>
+        </is>
+      </c>
       <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>4.19M</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6302,28 +6228,28 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.664M</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>0.67M</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>0.64M</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6335,79 +6261,71 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>5.9%</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>-3.5%</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>4.215%</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -6421,18 +6339,18 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>4.165%</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -6446,193 +6364,209 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>4.335%</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>5-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>4.478%</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr"/>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1.483M</t>
+        </is>
+      </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>0.664M</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>0.67M</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>0.64M</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>-3.5%</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>4.215%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>4.165%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G238" t="inlineStr">
         <is>
           <t>3</t>
@@ -6642,22 +6576,26 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>4.335%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G239" t="inlineStr">
         <is>
           <t>3</t>
@@ -6667,18 +6605,18 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>4.478%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6690,55 +6628,55 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr"/>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>432.3</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>433</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -6750,128 +6688,144 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>House Price Index MoMNOV</t>
+        </is>
+      </c>
       <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CB Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr"/>
+          <t>104.7</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>104</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -6883,22 +6837,26 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="G248" t="inlineStr">
         <is>
           <t>3</t>
@@ -6908,53 +6866,53 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>House Price IndexNOV</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
-          <t>432.3</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -6966,24 +6924,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>House Price Index MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -6995,26 +6953,22 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>House Price Index YoYNOV</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>4.250%</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr">
         <is>
           <t>3</t>
@@ -7024,26 +6978,22 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.140%</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr">
         <is>
           <t>3</t>
@@ -7053,59 +7003,47 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceJAN</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr">
         <is>
-          <t>104.7</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
+          <t>4.532%</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
+      <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr">
         <is>
           <t>3</t>
@@ -7115,113 +7053,85 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>1M</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
+      <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
+          <t>Wednesday January 29 2025</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
       <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/24</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>7.02%</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
+      <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/24</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
+      <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr">
         <is>
           <t>3</t>
@@ -7231,18 +7141,18 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>MBA Mortgage Market IndexJAN/24</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr">
         <is>
-          <t>4.250%</t>
+          <t>224.6</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -7256,18 +7166,18 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>MBA Mortgage Refinance IndexJAN/24</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr">
         <is>
-          <t>0.140%</t>
+          <t>558.8</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -7281,18 +7191,18 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>MBA Purchase IndexJAN/24</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr">
         <is>
-          <t>4.532%</t>
+          <t>163.0</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -7306,47 +7216,55 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Money SupplyDEC</t>
+          <t>Goods Trade Balance AdvDEC</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr">
         <is>
-          <t>$21.45T</t>
+          <t>$-102.86B</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>$ -101.0B</t>
+        </is>
+      </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
+          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr">
         <is>
-          <t>1M</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G264" t="inlineStr">
         <is>
           <t>2</t>
@@ -7356,31 +7274,47 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Wednesday January 29 2025</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoM AdvDEC</t>
+        </is>
+      </c>
       <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/24</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
-          <t>7.02%</t>
+          <t>-1.017M</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -7394,45 +7328,41 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/24</t>
+          <t>EIA Gasoline Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.332M</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/24</t>
+          <t>EIA Crude Oil Imports ChangeJAN/24</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>224.6</t>
-        </is>
-      </c>
+      <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr">
@@ -7444,20 +7374,16 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/24</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>558.8</t>
-        </is>
-      </c>
+      <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr">
@@ -7469,20 +7395,16 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/24</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>163.0</t>
-        </is>
-      </c>
+      <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr">
@@ -7494,87 +7416,63 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>$-102.86B</t>
-        </is>
-      </c>
+      <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>$ -101.0B</t>
-        </is>
-      </c>
+      <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/24</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7586,78 +7484,86 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/24</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>-1.017M</t>
-        </is>
-      </c>
+      <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/24</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
-          <t>2.332M</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/24</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/24</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -7666,109 +7572,133 @@
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/24</t>
-        </is>
-      </c>
+          <t>Thursday January 30 2025</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/24</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr"/>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/24</t>
+          <t>GDP Price Index QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/24</t>
+          <t>Initial Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>223K</t>
+        </is>
+      </c>
       <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>228.0K</t>
+        </is>
+      </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/24</t>
+          <t>Continuing Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr"/>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>1899K</t>
+        </is>
+      </c>
       <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>1885.0K</t>
+        </is>
+      </c>
       <c r="G282" t="inlineStr">
         <is>
           <t>3</t>
@@ -7778,22 +7708,26 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Core PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="G283" t="inlineStr">
         <is>
           <t>3</t>
@@ -7803,69 +7737,89 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Fed Interest Rate Decision</t>
+          <t>GDP Sales QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Fed Press Conference</t>
+          <t>Jobless Claims 4-week AverageJAN/25</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>213.5K</t>
+        </is>
+      </c>
       <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>214.0K</t>
+        </is>
+      </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>PCE Prices QoQ AdvQ4</t>
+        </is>
+      </c>
       <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7875,48 +7829,48 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>Real Consumer Spending QoQ AdvQ4</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
+          <t>Pending Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -7928,24 +7882,24 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
+          <t>Pending Home Sales YoYDEC</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>228.0K</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -7957,26 +7911,22 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
-          <t>1899K</t>
+          <t>-233Bcf</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>1885.0K</t>
-        </is>
-      </c>
+      <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr">
         <is>
           <t>3</t>
@@ -7986,26 +7936,22 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>4.265%</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr">
         <is>
           <t>3</t>
@@ -8015,26 +7961,18 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>GDP Sales QoQ AdvQ4</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr">
         <is>
           <t>3</t>
@@ -8044,26 +7982,22 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
+          <t>15-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>213.5K</t>
+          <t>6.16%</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>214.0K</t>
-        </is>
-      </c>
+      <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr">
         <is>
           <t>3</t>
@@ -8073,26 +8007,22 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>PCE Prices QoQ AdvQ4</t>
+          <t>30-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr">
         <is>
           <t>3</t>
@@ -8102,26 +8032,18 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
+          <t>Fed Balance SheetJAN/29</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr">
         <is>
           <t>3</t>
@@ -8131,215 +8053,255 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMDEC</t>
-        </is>
-      </c>
+          <t>Friday January 31 2025</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
       <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Pending Home Sales YoYDEC</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-233Bcf</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>4.265%</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/30</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>6.16%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/30</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>6.96%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr"/>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>PCE Price Index YoYDEC</t>
+        </is>
+      </c>
       <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8349,363 +8311,123 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="D308" t="inlineStr"/>
       <c r="E308" t="inlineStr"/>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
+          <t>Sunday February 02 2025</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr"/>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr"/>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr"/>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr"/>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr"/>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr"/>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr"/>
-      <c r="E315" t="inlineStr"/>
-      <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr"/>
-      <c r="E316" t="inlineStr"/>
-      <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr"/>
-      <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr"/>
-      <c r="E317" t="inlineStr"/>
-      <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr"/>
-      <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr"/>
-      <c r="E318" t="inlineStr"/>
-      <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G353"/>
+  <dimension ref="A1:G355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9654,6 +9654,48 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -7067,7 +7067,11 @@
           <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
       <c r="D256" t="inlineStr">
         <is>
           <t>478</t>
@@ -7092,7 +7096,11 @@
           <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr"/>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
       <c r="D257" t="inlineStr">
         <is>
           <t>580</t>
@@ -9423,7 +9431,11 @@
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
-      <c r="D343" t="inlineStr"/>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr">
@@ -9444,7 +9456,11 @@
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
-      <c r="D344" t="inlineStr"/>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr">

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G355"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9712,6 +9712,27 @@
         </is>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Treasury Refunding Financing Estimates</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
